--- a/Database_solution.xlsx
+++ b/Database_solution.xlsx
@@ -16,55 +16,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DRIVER'S NAME</t>
-  </si>
-  <si>
-    <t>CAR NAME</t>
-  </si>
-  <si>
-    <t>TIME IN</t>
-  </si>
-  <si>
-    <t>TIME OUT</t>
-  </si>
-  <si>
-    <t>CAR MODEL</t>
-  </si>
-  <si>
-    <t>DESTINATION</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>TAG NO</t>
-  </si>
-  <si>
-    <t>FAULT OR MAINTENANCE BRIEF</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>DATE OUT</t>
-  </si>
-  <si>
-    <t>DATE IN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">This is a database schema to for an online shopping firm to keep tracks of and maintain their dispatching automobiles. With this, they will able to know the efficiency of their automobiles and productivities. Cars available for dispatch will be known and those not available will also be known through the database. It will also help them keep records of time log at which dispatchers use when they deliver product and therefore will enable adequate monitoring and avoidance of automobile misuse </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name VARCHAR(45) NOT NULL </t>
+  </si>
+  <si>
+    <t>ID INT NOT NULL</t>
+  </si>
+  <si>
+    <t>MODEL VARCHAR(10) NOT NULL</t>
+  </si>
+  <si>
+    <t>DATE OF PURCHASE DATETIME</t>
+  </si>
+  <si>
+    <t>WARRANTY INT NOT NULL</t>
+  </si>
+  <si>
+    <t>DRIVERS</t>
+  </si>
+  <si>
+    <t>ID INT NOT NULL PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>ADDRESS VARCHAR(45) NOT NULL</t>
+  </si>
+  <si>
+    <t>AGE INT NOT NULL</t>
+  </si>
+  <si>
+    <t>FIRST NAME VARCHAR(45) NOT NULL PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>LAST NAME VARCHAR(45) NOT NULL PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>DELIVERY</t>
+  </si>
+  <si>
+    <t>CAR ID INT NOT NULL</t>
+  </si>
+  <si>
+    <t>DESTINATION VARCHAR(80) NOT NULL</t>
+  </si>
+  <si>
+    <t>TIME OUT DATETIME</t>
+  </si>
+  <si>
+    <t>TIME IN DATETIME</t>
+  </si>
+  <si>
+    <t>DRIVER'S NAME VARCHAR(45) NOT NULL FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>REPAIR AND MAINTENANCE</t>
+  </si>
+  <si>
+    <t>CAR NAME VARCHAR(45) NOT NULL</t>
+  </si>
+  <si>
+    <t>FAULT VARCHAR(70) NOT NULL</t>
+  </si>
+  <si>
+    <t>DATE DATETIME</t>
+  </si>
+  <si>
+    <t>CAR ID INT NOT NULL FOREIGN KEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +105,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,15 +148,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,56 +188,882 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2019301"/>
+          <a:ext cx="371475" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361952</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390523</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1985965" y="3100390"/>
+          <a:ext cx="2133596" cy="28571"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="4143375"/>
+          <a:ext cx="923925" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3552825" y="2162173"/>
+          <a:ext cx="361950" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2633661" y="3109913"/>
+          <a:ext cx="1885953" cy="66676"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3609975" y="4029075"/>
+          <a:ext cx="381000" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="2390775"/>
+          <a:ext cx="390525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6553201" y="3171824"/>
+          <a:ext cx="1562100" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6934200" y="3952874"/>
+          <a:ext cx="400050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38106</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="542925" y="2743198"/>
+          <a:ext cx="228606" cy="57152"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="476250" y="3552826"/>
+          <a:ext cx="495300" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542929</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="142878" y="3143250"/>
+          <a:ext cx="761997" cy="38104"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="342900" y="2409824"/>
+          <a:ext cx="400050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-400049" y="3181350"/>
+          <a:ext cx="1495425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="333375" y="3952875"/>
+          <a:ext cx="504825" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38103</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="190501" y="2190750"/>
+          <a:ext cx="581027" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-804862" y="3205162"/>
+          <a:ext cx="1971675" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="171450" y="4162425"/>
+          <a:ext cx="638175" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3009900" y="3714750"/>
+          <a:ext cx="476250" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:I22" totalsRowShown="0">
-  <autoFilter ref="B12:I22">
-    <filterColumn colId="1"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-  </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="10" name="DRIVER'S NAME"/>
-    <tableColumn id="3" name="CAR NAME"/>
-    <tableColumn id="8" name="DESTINATION"/>
-    <tableColumn id="9" name="PRODUCT"/>
-    <tableColumn id="5" name="TIME OUT"/>
-    <tableColumn id="6" name="TAG NO"/>
-    <tableColumn id="7" name="TIME IN"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:B15" totalsRowShown="0">
+  <autoFilter ref="B10:B15"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="CARS "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B28:D34" totalsRowShown="0">
-  <autoFilter ref="B28:D34"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="3" name="CAR NAME"/>
-    <tableColumn id="4" name="CAR MODEL"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D10:D15" totalsRowShown="0">
+  <autoFilter ref="D10:D15"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="DRIVERS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G28:M33" totalsRowShown="0">
-  <autoFilter ref="G28:M33">
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-  </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="CAR NAME"/>
-    <tableColumn id="3" name="CAR MODEL"/>
-    <tableColumn id="4" name="FAULT OR MAINTENANCE BRIEF"/>
-    <tableColumn id="5" name="COST"/>
-    <tableColumn id="6" name="DATE OUT"/>
-    <tableColumn id="7" name="DATE IN"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F10:F16" totalsRowShown="0">
+  <autoFilter ref="F10:F16"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B18:B24" totalsRowShown="0">
+  <autoFilter ref="B18:B24"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="REPAIR AND MAINTENANCE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,20 +1354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" customWidth="1"/>
@@ -469,9 +1376,9 @@
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -480,7 +1387,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1">
+    <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -489,7 +1396,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -498,7 +1405,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:8">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -507,7 +1414,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -516,62 +1423,110 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickTop="1">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" t="s">
-        <v>12</v>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -580,10 +1535,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
